--- a/biology/Botanique/Dzegužkalns/Dzegužkalns.xlsx
+++ b/biology/Botanique/Dzegužkalns/Dzegužkalns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dzegu%C5%BEkalns</t>
+          <t>Dzegužkalns</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le  Dzegužkalns anciennement Jēru kalns est un parc public du voisinage  de Dzirciems (Rīga) à Riga en Lettonie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le  Dzegužkalns anciennement Jēru kalns est un parc public du voisinage  de Dzirciems (Rīga) à Riga en Lettonie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dzegu%C5%BEkalns</t>
+          <t>Dzegužkalns</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dzegužkalns  est un monticule de 1 km de long et 0,3 km de large à Iļguciem dans le quartier de Dzirciem.
 Dzegužkalns une dune de la plaine sablonneuse du lac proglaciaire Baltique.
 Sa hauteur moyenne est de 16 à 18 mètres, 
-C'est la plus haute colline naturelle de Riga, son point culminant, à 28 m d'altitude, se trouve à l'extrémité nord de la dune [2],[3].
+C'est la plus haute colline naturelle de Riga, son point culminant, à 28 m d'altitude, se trouve à l'extrémité nord de la dune ,.
 L'ensemble du territoire de la dune, d'une superficie de 6,4 hectares, est occupé par le parc 
 Les arbres du parc sont plantés de manière libre, bordés de groupes d'arbustes. Dans les années 1980, un site de feu de camp a été établi dans le parc. Il y a une aire de jeux et un amphithéâtre.
 </t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dzegu%C5%BEkalns</t>
+          <t>Dzegužkalns</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S'étendant dans la direction nord-est-sud-ouest, la dune s'est formée il y a 10 000 à 9 000 ans sur la côte de la mer de Yoldia, dominée par les vents du nord-ouest dans un climat frais et sec[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S'étendant dans la direction nord-est-sud-ouest, la dune s'est formée il y a 10 000 à 9 000 ans sur la côte de la mer de Yoldia, dominée par les vents du nord-ouest dans un climat frais et sec.
 Au nord-ouest, elle est délimitée par les rues Dzegužu iela et Embūtes iela, à l'est par la rue Daugavgrīvas iela. La dune est traversée par la rue Buļļu iela.
 Les extrémités nord et sud de la dune sont bâties.
 Le nom de la colline vient de la maison voisine du fermier Dzeguze (Seggus) qui faisait partie du manoir de Pinķi.
